--- a/tonal_IM_speech_IM_visual_crowding_old_unbalanced_VC exp1/summarized_results_old_unbalanced_VC.xlsx
+++ b/tonal_IM_speech_IM_visual_crowding_old_unbalanced_VC exp1/summarized_results_old_unbalanced_VC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Subject</t>
   </si>
@@ -25,9 +25,6 @@
     <t>VC (experiment 3)</t>
   </si>
   <si>
-    <t>noise IM</t>
-  </si>
-  <si>
     <t>tonal IM</t>
   </si>
   <si>
@@ -107,6 +104,12 @@
   </si>
   <si>
     <t>TLW</t>
+  </si>
+  <si>
+    <t>ERB [Hz] (experiment 1)</t>
+  </si>
+  <si>
+    <t>noise EM</t>
   </si>
 </sst>
 </file>
@@ -122,7 +125,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -144,6 +147,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -212,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -224,6 +233,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -548,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A23"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,57 +579,65 @@
     <col min="13" max="13" width="11" style="1" customWidth="1"/>
     <col min="14" max="14" width="19.42578125" style="1" customWidth="1"/>
     <col min="15" max="15" width="21.42578125" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="16" max="16" width="13.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
       <c r="K1" s="4"/>
-      <c r="L1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="5" t="s">
+      <c r="L1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="8" t="s">
+      <c r="P1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" s="6"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
+      <c r="B2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
       <c r="J2" s="3"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="6"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
       <c r="B3" s="3">
         <v>0.3</v>
       </c>
@@ -640,25 +663,31 @@
         <v>1.5</v>
       </c>
       <c r="J3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="M3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="9"/>
+      <c r="P3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O3" s="7"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="B4" s="1">
         <v>57.03125</v>
@@ -702,10 +731,16 @@
       <c r="O4" s="1">
         <v>2.3087835916467738</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4" s="1">
+        <v>187.85107937208721</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>13.334373380276213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1">
         <v>59.739583333333336</v>
@@ -749,10 +784,16 @@
       <c r="O5" s="1">
         <v>3.6515953379212771</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P5" s="1">
+        <v>253.36504998565294</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>331.07702642079994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1">
         <v>53.90625</v>
@@ -796,10 +837,16 @@
       <c r="O6" s="1">
         <v>2.4238308657313947</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P6" s="1">
+        <v>162.99134563039186</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>151.79137011068786</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1">
         <v>56.666666666666664</v>
@@ -843,10 +890,16 @@
       <c r="O7" s="1">
         <v>3.3466613078924174</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P7" s="1">
+        <v>184.50277973335304</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>238.38292385795143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1">
         <v>54.479166666666664</v>
@@ -890,10 +943,16 @@
       <c r="O8" s="1">
         <v>3.7670605079879675</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P8" s="1">
+        <v>153.14968724183376</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>226.11172320801003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1">
         <v>55.807291666666664</v>
@@ -937,10 +996,16 @@
       <c r="O9" s="1">
         <v>1.6210854829968568</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P9" s="1">
+        <v>139.37843395236126</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>268.33949553616492</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1">
         <v>57.708333333333336</v>
@@ -984,10 +1049,16 @@
       <c r="O10" s="1">
         <v>0.87646717614632941</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P10" s="1">
+        <v>325.37509048181005</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>428.19037334915782</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1">
         <v>59.817708333333336</v>
@@ -1031,10 +1102,16 @@
       <c r="O11" s="1">
         <v>0.3443064162324041</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P11" s="1">
+        <v>178.66348895453768</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>20.519739865828527</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1">
         <v>55.885416666666664</v>
@@ -1078,10 +1155,16 @@
       <c r="O12" s="1">
         <v>2.2969049129031354</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P12" s="1">
+        <v>188.2983496068704</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>150.93089656321243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="1">
         <v>55.46875</v>
@@ -1125,10 +1208,16 @@
       <c r="O13" s="1">
         <v>1.7317499372465757</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P13" s="1">
+        <v>182.77672799445034</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>199.01180999363413</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1">
         <v>55.15625</v>
@@ -1172,10 +1261,16 @@
       <c r="O14" s="1">
         <v>2.4240631406242064</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P14" s="1">
+        <v>169.89475489137635</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>227.86508870663474</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1">
         <v>51.822916666666664</v>
@@ -1219,10 +1314,16 @@
       <c r="O15" s="1">
         <v>1.755550123596801</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P15" s="1">
+        <v>192.29027266367856</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>265.68623990719084</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="1">
         <v>57.34375</v>
@@ -1266,10 +1367,16 @@
       <c r="O16" s="1">
         <v>0.6804562666176025</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P16" s="1">
+        <v>188.09283428873101</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>7.3324358976538919</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" s="1">
         <v>53.072916666666664</v>
@@ -1313,10 +1420,16 @@
       <c r="O17" s="1">
         <v>2.3190212997195032</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P17" s="1">
+        <v>221.60700005686928</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>7.2834866503532583</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" s="1">
         <v>54.453125</v>
@@ -1360,10 +1473,16 @@
       <c r="O18" s="1">
         <v>1.7125418304107622</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P18" s="1">
+        <v>203.26988020220639</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>10.20537694203276</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" s="1">
         <v>53.385416666666664</v>
@@ -1407,10 +1526,16 @@
       <c r="O19" s="1">
         <v>2.4776380604847548</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P19" s="1">
+        <v>167.6131332290372</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>200.63803196451076</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" s="1">
         <v>56.536458333333336</v>
@@ -1454,10 +1579,16 @@
       <c r="O20" s="1">
         <v>2.5491342850851555</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P20" s="1">
+        <v>222.03984903918527</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>329.38351918334507</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" s="1">
         <v>56.510416666666664</v>
@@ -1501,10 +1632,16 @@
       <c r="O21" s="1">
         <v>1.4485312593863182</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P21" s="1">
+        <v>205.89086640537312</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>217.20615395502205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" s="1">
         <v>57.838541666666664</v>
@@ -1548,10 +1685,16 @@
       <c r="O22" s="1">
         <v>0.77963222501034257</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P22" s="1">
+        <v>187.53150887776337</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>838.5006398970387</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" s="1">
         <v>52.317708333333336</v>
@@ -1595,9 +1738,16 @@
       <c r="O23" s="1">
         <v>2.0883314218260409</v>
       </c>
+      <c r="P23" s="1">
+        <v>174.74818080907801</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>356.8115552627176</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="P1:Q2"/>
     <mergeCell ref="O1:O3"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="L1:N2"/>
